--- a/build/reference/ExcelForAPIDocumentation/UmpleApiSummary.xlsx
+++ b/build/reference/ExcelForAPIDocumentation/UmpleApiSummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3180" windowWidth="32020" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="1700" windowWidth="32020" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
   <si>
     <t>T getZ()</t>
   </si>
@@ -105,12 +105,6 @@
     <t>* self r;</t>
   </si>
   <si>
-    <t>W addW()</t>
-  </si>
-  <si>
-    <t>removes object</t>
-  </si>
-  <si>
     <t>restores original default</t>
   </si>
   <si>
@@ -138,39 +132,15 @@
     <t>is cardinality &gt; 0?</t>
   </si>
   <si>
-    <t>adds a link to existing W</t>
-  </si>
-  <si>
-    <t>gets immutable list of links</t>
-  </si>
-  <si>
-    <t>constructs a new W and addslink</t>
-  </si>
-  <si>
-    <t>picks a specific linked W</t>
-  </si>
-  <si>
-    <t>looks up specific W -1 if none</t>
-  </si>
-  <si>
-    <t>static int minimumNumberOFWs</t>
-  </si>
-  <si>
     <t>multiplicity lower bound</t>
   </si>
   <si>
-    <t>int numberOfWs</t>
-  </si>
-  <si>
     <t>cardinality</t>
   </si>
   <si>
     <t>boolean removeW(W)</t>
   </si>
   <si>
-    <t>Remove link to W if possible</t>
-  </si>
-  <si>
     <t>W getW()</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>W or null</t>
   </si>
   <si>
-    <t>returns the W</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -- * W;</t>
   </si>
   <si>
@@ -201,9 +168,6 @@
     <t>boolean setWs(W…)</t>
   </si>
   <si>
-    <t>Add a set of links</t>
-  </si>
-  <si>
     <t>boolean isNumberOfWsValid()</t>
   </si>
   <si>
@@ -231,18 +195,9 @@
     <t xml:space="preserve"> -- * W r;</t>
   </si>
   <si>
-    <t>for addW() only</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>State of substate s2</t>
-  </si>
-  <si>
-    <t>Event method e (for all events)</t>
-  </si>
-  <si>
     <t>enum getSm()</t>
   </si>
   <si>
@@ -255,15 +210,6 @@
     <t>boolean e()</t>
   </si>
   <si>
-    <t>Current state for statemachine sm</t>
-  </si>
-  <si>
-    <t>with key { z }</t>
-  </si>
-  <si>
-    <t>if T boolean</t>
-  </si>
-  <si>
     <t>int hashCode()</t>
   </si>
   <si>
@@ -276,9 +222,6 @@
     <t>is equal to another?</t>
   </si>
   <si>
-    <t>If no events, then can set directly</t>
-  </si>
-  <si>
     <t>Sm with events</t>
   </si>
   <si>
@@ -291,12 +234,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Summary of the API generated by Umple attribuites, associations and state machines</t>
-  </si>
-  <si>
     <t>void delete()</t>
   </si>
   <si>
@@ -318,9 +255,6 @@
     <t>API GENERATED FROM ATTRIBUTES</t>
   </si>
   <si>
-    <t>yes; true at most once</t>
-  </si>
-  <si>
     <t>yes; true only once</t>
   </si>
   <si>
@@ -351,15 +285,6 @@
     <t>boolean setSm(enum)</t>
   </si>
   <si>
-    <t>T is the type of the attribute (String if omitted); note that Umple builting types such as Integer become native types such as int</t>
-  </si>
-  <si>
-    <t>W is the name of the class at the other end of the association; used in method names unless a role name is present</t>
-  </si>
-  <si>
-    <t>r is a role name used when referring to W (optional, except in reflexive assocations</t>
-  </si>
-  <si>
     <t>? To many</t>
   </si>
   <si>
@@ -439,6 +364,132 @@
   </si>
   <si>
     <t>return true if value is true</t>
+  </si>
+  <si>
+    <t>yes; getR()</t>
+  </si>
+  <si>
+    <t>yes; hasR()</t>
+  </si>
+  <si>
+    <t>yes; getR(index)</t>
+  </si>
+  <si>
+    <t>yes;  … ofR(W)</t>
+  </si>
+  <si>
+    <t>yes; … ofR()</t>
+  </si>
+  <si>
+    <t>int numberOfWs()</t>
+  </si>
+  <si>
+    <t>yes; addR(W)</t>
+  </si>
+  <si>
+    <t>yes; removeR(W)</t>
+  </si>
+  <si>
+    <t>static int minimumNumberOfWs()</t>
+  </si>
+  <si>
+    <t>W addW(args)</t>
+  </si>
+  <si>
+    <t>if 1 -- * W</t>
+  </si>
+  <si>
+    <t>if * -- or 0..1 --</t>
+  </si>
+  <si>
+    <t>W (W args if 1 -- 1)</t>
+  </si>
+  <si>
+    <t>if 1 -- * W r</t>
+  </si>
+  <si>
+    <t>key { z }</t>
+  </si>
+  <si>
+    <t>T is the type of the attribute (String if omitted); note that Umple builtin types such as Integer become native types such as int</t>
+  </si>
+  <si>
+    <t>W is the name of the class at the other end of the association; used in method names unless a role name is present; pluralization rules are applied</t>
+  </si>
+  <si>
+    <t>r is a role name used when referring to W (optional, except in reflexive associations)</t>
+  </si>
+  <si>
+    <t>Summary of the API generated by Umple from attributes, associations, state machines and other features</t>
+  </si>
+  <si>
+    <t>removes object, correctly handling cascade deletion and referential integrity</t>
+  </si>
+  <si>
+    <t>depends</t>
+  </si>
+  <si>
+    <t>add a set of links</t>
+  </si>
+  <si>
+    <t>remove link to W if possible</t>
+  </si>
+  <si>
+    <t>return the W</t>
+  </si>
+  <si>
+    <t>pick a specific linked W</t>
+  </si>
+  <si>
+    <t>ges immutable list of links</t>
+  </si>
+  <si>
+    <t>look up specific W -1 if none</t>
+  </si>
+  <si>
+    <t>add a link to existing W</t>
+  </si>
+  <si>
+    <t>current state for statemachine sm</t>
+  </si>
+  <si>
+    <t>state of substate s2</t>
+  </si>
+  <si>
+    <t>event method e (for all events)</t>
+  </si>
+  <si>
+    <t>set state directly</t>
+  </si>
+  <si>
+    <t>array attribute</t>
+  </si>
+  <si>
+    <t>W [] r;</t>
+  </si>
+  <si>
+    <t>yes; W[] getR()</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>Note that the API for array attributes is shown as a column in the associations table further down</t>
+  </si>
+  <si>
+    <t>construct a new W and adds link</t>
+  </si>
+  <si>
+    <t>static int maximumNumberOfWs()</t>
+  </si>
+  <si>
+    <t>static int requiredNumberOfWs()</t>
+  </si>
+  <si>
+    <t>multiplicity upper bound if &gt; 1</t>
+  </si>
+  <si>
+    <t>fixed multiplicity if &gt; 1</t>
   </si>
 </sst>
 </file>
@@ -491,7 +542,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -541,13 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -656,8 +709,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -668,14 +748,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="93" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="93" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -722,6 +803,33 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1098,10 +1206,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
+      <selection activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1117,870 +1227,953 @@
     <col min="10" max="10" width="21.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="14.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>98</v>
+      <c r="A7" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1">
+      <c r="A12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>89</v>
+    <row r="14" spans="1:12" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>99</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="8" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="5" customFormat="1">
+      <c r="A30" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="12" customFormat="1">
-      <c r="A25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1">
-      <c r="A26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1">
-      <c r="A29" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="6" customFormat="1">
-      <c r="A33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1">
+      <c r="A34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1">
+      <c r="A35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="G41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="G42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="6" t="s">
+      <c r="G43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="7" customFormat="1">
-      <c r="A34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="G48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="1" customFormat="1">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K49" s="13" t="s">
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="10" customFormat="1">
+      <c r="A57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="F57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="8" customFormat="1">
+      <c r="A58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="5" customFormat="1">
+      <c r="A60" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="6" customFormat="1">
+      <c r="A62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L49" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="1" customFormat="1">
-      <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="12" customFormat="1">
-      <c r="A54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="8" customFormat="1">
-      <c r="A55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="5" customFormat="1">
-      <c r="A57" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="6" customFormat="1">
-      <c r="A59" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="D62" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>89</v>
+        <v>143</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>89</v>
+        <v>143</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="8" customFormat="1">
-      <c r="A67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="8" customFormat="1">
+      <c r="A70" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="5" customFormat="1">
-      <c r="A70" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
-        <v>137</v>
+      <c r="B70" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="5" customFormat="1">
+      <c r="A73" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A29" r:id="rId2"/>
-    <hyperlink ref="A57" r:id="rId3"/>
+    <hyperlink ref="A30" r:id="rId2"/>
+    <hyperlink ref="A60" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
